--- a/src/excel/FashionsPromo.xlsx
+++ b/src/excel/FashionsPromo.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
   <si>
     <t>ID</t>
   </si>
@@ -34,61 +34,21 @@
     <t>Date</t>
   </si>
   <si>
-    <t>657e791796a53c98c650bc8d</t>
-  </si>
-  <si>
-    <t>Invalid Date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Diskon Akhir Tahun 30% Fashion </t>
-  </si>
-  <si>
-    <t xml:space="preserve">657e5ee73c1a9b6cca06bd22
+    <t>657ec6b586915c0bb39a22ff</t>
+  </si>
+  <si>
+    <t>2/7/2024</t>
+  </si>
+  <si>
+    <t>Diskon 30% Fashion Pria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">657e60693c1a9b6cca06bd2c
+657e60693c1a9b6cca06bd2b
 657aba8fcb516d87717e8172</t>
   </si>
   <si>
     <t>Diskon persentase</t>
-  </si>
-  <si>
-    <t>12/25/2023 - 12/31/2023</t>
-  </si>
-  <si>
-    <t>657e791796a53c98c650bc8e</t>
-  </si>
-  <si>
-    <t>Cashback 10%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">657aba8acb516d87717e8170
-657e5ee73c1a9b6cca06bd21</t>
-  </si>
-  <si>
-    <t>Cashback persentase</t>
-  </si>
-  <si>
-    <t>1/17/2024 - 2/24/2024</t>
-  </si>
-  <si>
-    <t>657e791796a53c98c650bc8c</t>
-  </si>
-  <si>
-    <t>Cashback 50%</t>
-  </si>
-  <si>
-    <t>657e60693c1a9b6cca06bd2d</t>
-  </si>
-  <si>
-    <t>12/30/2023 - 12/31/2023</t>
-  </si>
-  <si>
-    <t>657ec6b586915c0bb39a22ff</t>
-  </si>
-  <si>
-    <t>Diskon 30% Fashion Pria</t>
-  </si>
-  <si>
-    <t xml:space="preserve">657e60693c1a9b6cca06bd2c
-657e60693c1a9b6cca06bd2b</t>
   </si>
   <si>
     <t>1/1/2024 - 1/6/2024</t>
@@ -104,7 +64,7 @@
 657aba8fcb516d87717e8172</t>
   </si>
   <si>
-    <t>Diskon nominal</t>
+    <t>Cashback nominal</t>
   </si>
   <si>
     <t>12/20/2023 - 1/1/2024</t>
@@ -119,6 +79,9 @@
     <t xml:space="preserve">657aba8acb516d87717e8170
 657e5ee73c1a9b6cca06bd22
 657e5ee73c1a9b6cca06bd23</t>
+  </si>
+  <si>
+    <t>Cashback persentase</t>
   </si>
   <si>
     <t>1/18/2024 - 2/18/2024</t>
@@ -507,7 +470,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G4"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="7" width="30" customWidth="1"/>
@@ -576,7 +539,7 @@
         <v>16</v>
       </c>
       <c r="F3" s="2">
-        <v>10</v>
+        <v>50000</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>17</v>
@@ -596,82 +559,13 @@
         <v>20</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F4" s="2">
         <v>50</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" s="2">
-        <v>30</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F6" s="2">
-        <v>50000</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F7" s="2">
-        <v>50</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/src/excel/FashionsPromo.xlsx
+++ b/src/excel/FashionsPromo.xlsx
@@ -37,7 +37,7 @@
     <t>657ec6b586915c0bb39a22ff</t>
   </si>
   <si>
-    <t>2/7/2024</t>
+    <t>2/11/2024</t>
   </si>
   <si>
     <t>Diskon 30% Fashion Pria</t>

--- a/src/excel/FashionsPromo.xlsx
+++ b/src/excel/FashionsPromo.xlsx
@@ -37,7 +37,7 @@
     <t>657ec6b586915c0bb39a22ff</t>
   </si>
   <si>
-    <t>2/11/2024</t>
+    <t>3/6/2024</t>
   </si>
   <si>
     <t>Diskon 30% Fashion Pria</t>
